--- a/Resources/iphone-5/Images/Data/LANDLORD Assets data.xlsx
+++ b/Resources/iphone-5/Images/Data/LANDLORD Assets data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19920" windowHeight="8340"/>
+    <workbookView windowWidth="19920" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PROTOTYPE" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>PICTURES</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>floating cloud</t>
+  </si>
+  <si>
+    <t>startButton</t>
   </si>
 </sst>
 </file>
@@ -178,21 +181,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -249,42 +247,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -600,11 +601,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -630,7 +631,7 @@
   <sheetPr/>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -641,16 +642,16 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -800,10 +801,10 @@
       <c r="C18">
         <v>716.193</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -921,10 +922,10 @@
       <c r="C29">
         <v>86.738</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1069,10 +1070,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1428571428571" defaultRowHeight="12.75" customHeight="1" outlineLevelCol="3"/>
@@ -1174,6 +1175,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="4">
+        <v>572495</v>
+      </c>
+      <c r="C10" s="4">
+        <v>526133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Resources/iphone-5/Images/Data/LANDLORD Assets data.xlsx
+++ b/Resources/iphone-5/Images/Data/LANDLORD Assets data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>PICTURES</t>
   </si>
@@ -174,6 +174,27 @@
   </si>
   <si>
     <t>startButton</t>
+  </si>
+  <si>
+    <t>PlayScene</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>gradientPlayscene</t>
+  </si>
+  <si>
+    <t>Character 1</t>
+  </si>
+  <si>
+    <t>Character 2</t>
+  </si>
+  <si>
+    <t>scoreBoard</t>
+  </si>
+  <si>
+    <t>pauseButton</t>
   </si>
 </sst>
 </file>
@@ -182,9 +203,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -247,15 +268,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -263,7 +284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -278,6 +299,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -642,16 +666,16 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -801,10 +825,10 @@
       <c r="C18">
         <v>716.193</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -922,10 +946,10 @@
       <c r="C29">
         <v>86.738</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1070,10 +1094,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1428571428571" defaultRowHeight="12.75" customHeight="1" outlineLevelCol="3"/>
@@ -1186,6 +1210,97 @@
         <v>526133</v>
       </c>
     </row>
+    <row r="12" customHeight="1" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>568</v>
+      </c>
+      <c r="C15">
+        <v>320</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="4">
+        <v>104592</v>
+      </c>
+      <c r="C16" s="4">
+        <v>494027</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1032333</v>
+      </c>
+      <c r="C17" s="4">
+        <v>494027</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18">
+        <v>568</v>
+      </c>
+      <c r="C18">
+        <v>320</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1044559</v>
+      </c>
+      <c r="C19" s="4">
+        <v>84997</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Resources/iphone-5/Images/Data/LANDLORD Assets data.xlsx
+++ b/Resources/iphone-5/Images/Data/LANDLORD Assets data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>PICTURES</t>
   </si>
@@ -195,6 +195,30 @@
   </si>
   <si>
     <t>pauseButton</t>
+  </si>
+  <si>
+    <t>Option Scene</t>
+  </si>
+  <si>
+    <t>fogButton</t>
+  </si>
+  <si>
+    <t>soundButton</t>
+  </si>
+  <si>
+    <t>600,6</t>
+  </si>
+  <si>
+    <t>sfxButton</t>
+  </si>
+  <si>
+    <t>treeButton</t>
+  </si>
+  <si>
+    <t>263,52</t>
+  </si>
+  <si>
+    <t>backButton</t>
   </si>
 </sst>
 </file>
@@ -202,10 +226,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -268,15 +292,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,7 +308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -302,6 +326,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -666,16 +693,16 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -825,10 +852,10 @@
       <c r="C18">
         <v>716.193</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -946,10 +973,10 @@
       <c r="C29">
         <v>86.738</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1094,10 +1121,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D26" sqref="D22:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1428571428571" defaultRowHeight="12.75" customHeight="1" outlineLevelCol="3"/>
@@ -1301,6 +1328,81 @@
         <v>6</v>
       </c>
     </row>
+    <row r="21" customHeight="1" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="4">
+        <v>859227</v>
+      </c>
+      <c r="C22" s="4">
+        <v>126151</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="4">
+        <v>142398</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="4">
+        <v>687832</v>
+      </c>
+      <c r="C24" s="4">
+        <v>303004</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="4">
+        <v>964836</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1049105</v>
+      </c>
+      <c r="C26" s="4">
+        <v>558245</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Resources/iphone-5/Images/Data/LANDLORD Assets data.xlsx
+++ b/Resources/iphone-5/Images/Data/LANDLORD Assets data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>PICTURES</t>
   </si>
@@ -219,6 +219,24 @@
   </si>
   <si>
     <t>backButton</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>winBg</t>
+  </si>
+  <si>
+    <t>menuButton</t>
+  </si>
+  <si>
+    <t>FbButton</t>
+  </si>
+  <si>
+    <t>568,5</t>
+  </si>
+  <si>
+    <t>replayButton</t>
   </si>
 </sst>
 </file>
@@ -226,10 +244,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1121,10 +1139,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D22:D26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1428571428571" defaultRowHeight="12.75" customHeight="1" outlineLevelCol="3"/>
@@ -1403,6 +1421,89 @@
         <v>5</v>
       </c>
     </row>
+    <row r="28" customHeight="1" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30">
+        <v>562</v>
+      </c>
+      <c r="C30">
+        <v>281</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31">
+        <v>568</v>
+      </c>
+      <c r="C31">
+        <v>320</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="4">
+        <v>423185</v>
+      </c>
+      <c r="C32" s="4">
+        <v>574865</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:4">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="4">
+        <v>553149</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:4">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="4">
+        <v>703386</v>
+      </c>
+      <c r="C34" s="4">
+        <v>574864</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Resources/iphone-5/Images/Data/LANDLORD Assets data.xlsx
+++ b/Resources/iphone-5/Images/Data/LANDLORD Assets data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>PICTURES</t>
   </si>
@@ -237,6 +237,39 @@
   </si>
   <si>
     <t>replayButton</t>
+  </si>
+  <si>
+    <t>Paused layer</t>
+  </si>
+  <si>
+    <t>paused_title</t>
+  </si>
+  <si>
+    <t>k tương tác được</t>
+  </si>
+  <si>
+    <t>paused_resume</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 25px</t>
+  </si>
+  <si>
+    <t>paused_option</t>
+  </si>
+  <si>
+    <t>trừ đi 25px</t>
+  </si>
+  <si>
+    <t>paused_replay</t>
+  </si>
+  <si>
+    <t>Dialouge bubble</t>
+  </si>
+  <si>
+    <t>bubble_blue</t>
+  </si>
+  <si>
+    <t>bubble_red</t>
   </si>
 </sst>
 </file>
@@ -244,10 +277,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1139,10 +1172,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1428571428571" defaultRowHeight="12.75" customHeight="1" outlineLevelCol="3"/>
@@ -1504,6 +1537,85 @@
         <v>5</v>
       </c>
     </row>
+    <row r="36" customHeight="1" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37">
+        <v>568</v>
+      </c>
+      <c r="C37" s="4">
+        <v>134117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:3">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38">
+        <v>568</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:3">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39">
+        <v>568</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:3">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40">
+        <v>568</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:3">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="4">
+        <v>440336</v>
+      </c>
+      <c r="C43" s="4">
+        <v>263093</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:3">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="4">
+        <v>708276</v>
+      </c>
+      <c r="C44" s="4">
+        <v>263093</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
